--- a/Benchmark_System/MAX SENSITIVITY 2/Time delay and lag 5_ms2/Time Delay and Lag5_ms2_latex.xlsx
+++ b/Benchmark_System/MAX SENSITIVITY 2/Time delay and lag 5_ms2/Time Delay and Lag5_ms2_latex.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>parametri</t>
   </si>
@@ -78,37 +78,22 @@
     <t>PID</t>
   </si>
   <si>
-    <t>$C(s) =\frac{0.000148\,s^2+0.3005\,s+0.417}{0.0002725\,s^2+0.7203\,s}$</t>
+    <t>$C(s) =\frac{9.607\,s^2+22.37\,s+4.093}{0.05902\,s^2+5.455\,s}$</t>
   </si>
   <si>
     <t>IPD</t>
   </si>
   <si>
-    <t>$C_1(s) =\frac{1.388\,\left(0.3004\,s+0.417\right)}{s}$  $C_2(s) =\frac{0.0002055\,s+0.417}{0.0003783\,s+1.0}$</t>
+    <t>$C_1(s) =\frac{3.631}{s}$  $C_2(s) =\frac{2.826\,s+6.76}{0.02427\,s+1.0}$</t>
   </si>
   <si>
     <t>DPI</t>
   </si>
   <si>
-    <t>$C_1(s) =0.41702$  $C_2(s) =\frac{0.5789}{s}$  $C_3(s) =\frac{4.77e-5\,s}{0.0003783\,s+1.0}$</t>
+    <t>$C_1(s) =4.4585$  $C_2(s) =\frac{0.6278}{s}$  $C_3(s) =\frac{1.823\,s}{0.01132\,s+1.0}$</t>
   </si>
   <si>
     <t>PIDA</t>
-  </si>
-  <si>
-    <t>$C(s) =\frac{99.99\,s^4+204.9\,s^3+141.9\,s^2+41.58\,s+4.089}{13.8\,s^4+36.54\,s^3+25.72\,s^2+5.452\,s}$</t>
-  </si>
-  <si>
-    <t>$C(s) =\frac{0.5444\,s^2+0.7618\,s+0.3576}{1.041\,s^2+1.37\,s}$</t>
-  </si>
-  <si>
-    <t>$C_1(s) =\frac{0.6927\,\left(2.459\,s+1.704\right)}{s}$  $C_2(s) =\frac{5.346\,s+1.704}{1.967\,s+1.0}$</t>
-  </si>
-  <si>
-    <t>$C_1(s) =1.5424$  $C_2(s) =\frac{0.999}{s}$  $C_3(s) =\frac{2.826\,s}{2.627\,s+1.0}$</t>
-  </si>
-  <si>
-    <t>$C(s) =\frac{3.425\,s^4+14.43\,s^3+32.86\,s^2+26.77\,s+4.172}{0.1215\,s^4+1.442\,s^3+5.264\,s^2+5.452\,s}$</t>
   </si>
   <si>
     <t>$C(s) =\frac{0.1928\,s^4+3.207\,s^3+15.83\,s^2+24.19\,s+4.237}{0.002888\,s^4+0.1083\,s^3+1.34\,s^2+5.463\,s}$</t>
@@ -132,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -146,11 +131,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -158,6 +147,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,125 +163,125 @@
   <dimension ref="A1:E20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.046875" customWidth="true"/>
-    <col min="2" max="2" width="61.046875" customWidth="true"/>
-    <col min="3" max="3" width="91.26953125" customWidth="true"/>
-    <col min="4" max="4" width="76.82421875" customWidth="true"/>
-    <col min="5" max="5" width="94.26953125" customWidth="true"/>
+    <col min="1" max="1" width="26" customWidth="true"/>
+    <col min="2" max="2" width="56" customWidth="true"/>
+    <col min="3" max="3" width="63" customWidth="true"/>
+    <col min="4" max="4" width="74.7109375" customWidth="true"/>
+    <col min="5" max="5" width="97.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>234.61013939102909</v>
+        <v>1.3789767622591245</v>
       </c>
       <c r="C3">
-        <v>596.57534607948014</v>
+        <v>235.57997613043619</v>
       </c>
       <c r="D3">
-        <v>859.33197480964373</v>
+        <v>166.44496390397501</v>
       </c>
       <c r="E3">
-        <v>1.3564025428651407</v>
+        <v>1.3564025909617687</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.417022004702574</v>
+        <v>4.0930672689999996</v>
       </c>
       <c r="C4">
-        <v>0.417022004702574</v>
+        <v>6.7601334600593184</v>
       </c>
       <c r="D4">
-        <v>0.417022004702574</v>
+        <v>4.4585431936982811</v>
       </c>
       <c r="E4">
-        <v>4.2369094267046581</v>
+        <v>4.2369094269999996</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7203244934421581</v>
+        <v>5.4545799450699999</v>
       </c>
       <c r="C5">
-        <v>0.7203244934421581</v>
+        <v>1.861924929648904</v>
       </c>
       <c r="D5">
-        <v>0.7203244934421581</v>
+        <v>7.1021397489810179</v>
       </c>
       <c r="E5">
-        <v>5.463326167787681</v>
+        <v>5.463326168</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00011437481734488664</v>
+        <v>0.41949674300000001</v>
       </c>
       <c r="C6">
-        <v>0.00011437481734488664</v>
+        <v>0.39370388968740699</v>
       </c>
       <c r="D6">
-        <v>0.00011437481734488664</v>
+        <v>0.40893142255738102</v>
       </c>
       <c r="E6">
-        <v>0.43515543776895216</v>
+        <v>0.43515543800000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0.055177151907061489</v>
+        <v>0.055177152</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -305,7 +298,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -322,107 +315,107 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.30233257263183977</v>
+        <v>38.771624269999997</v>
       </c>
       <c r="C10">
-        <v>0.30233257263183977</v>
+        <v>16.222375069598719</v>
       </c>
       <c r="D10">
-        <v>0.30233257263183977</v>
+        <v>36.129690930396485</v>
       </c>
       <c r="E10">
-        <v>4.37793953107274</v>
+        <v>4.377939531</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>0.7566342624252772</v>
+        <v>0.75663426199999995</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2601682813571906</v>
+        <v>1.9211187094323792</v>
       </c>
       <c r="C12">
-        <v>1.8338385675288045</v>
+        <v>1.7887972416960514</v>
       </c>
       <c r="D12">
-        <v>2.2601876408228661</v>
+        <v>1.9109170970332856</v>
       </c>
       <c r="E12">
-        <v>1.9999741626881948</v>
+        <v>2.0012910508113109</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.4612674951759415</v>
+        <v>0.73382973945232766</v>
       </c>
       <c r="C13">
-        <v>3.7617881484494253</v>
+        <v>1.3560076554511318</v>
       </c>
       <c r="D13">
-        <v>3.4682989076262203</v>
+        <v>0.94685344721260822</v>
       </c>
       <c r="E13">
-        <v>0.67941920982901971</v>
+        <v>0.67942815255476252</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>41.304183814062924</v>
+        <v>4.2031576509705415</v>
       </c>
       <c r="C14">
-        <v>29.523965351039887</v>
+        <v>6.8986943974286898</v>
       </c>
       <c r="D14">
-        <v>41.305352111731445</v>
+        <v>4.5132258595867674</v>
       </c>
       <c r="E14">
-        <v>4.2702159843577689</v>
+        <v>4.2702176718848728</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>46.539867188684745</v>
+        <v>8.6744060081456631</v>
       </c>
       <c r="C15">
-        <v>28.500451181086973</v>
+        <v>5.8680918705892315</v>
       </c>
       <c r="D15">
-        <v>46.501812631594163</v>
+        <v>5.2956827039995158</v>
       </c>
       <c r="E15">
-        <v>13.906271406464255</v>
+        <v>13.891739110727851</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>-0</v>
       </c>
       <c r="C16">
-        <v>4.6112459602172865e-13</v>
+        <v>8.9431263267353209e-15</v>
       </c>
       <c r="D16">
         <v>-0</v>
@@ -432,71 +425,71 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.4653986718868475</v>
+        <v>1.0867440600814564</v>
       </c>
       <c r="C17">
-        <v>1.2850045118108697</v>
+        <v>1.0586809187058923</v>
       </c>
       <c r="D17">
-        <v>1.4650184436066211</v>
+        <v>1.0529565406163659</v>
       </c>
       <c r="E17">
-        <v>1.1390627140646425</v>
+        <v>1.1389173911072785</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.6542948926874725</v>
+        <v>1.9903364742038794</v>
       </c>
       <c r="C18">
-        <v>9.6355502751948574</v>
+        <v>3.6461671573756576</v>
       </c>
       <c r="D18">
-        <v>9.77625349344253</v>
+        <v>2.7051637225909406</v>
       </c>
       <c r="E18">
-        <v>1.9977754081011581</v>
+        <v>1.997587740270498</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.5008757406172224</v>
+        <v>2.1198083182640222</v>
       </c>
       <c r="C19">
-        <v>5.3065426625070042</v>
+        <v>2.2726324532603113</v>
       </c>
       <c r="D19">
-        <v>4.4971854209158462</v>
+        <v>2.1001668553621404</v>
       </c>
       <c r="E19">
-        <v>1.9973727975281208</v>
+        <v>1.9973727970282726</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>26.956477368135683</v>
+        <v>64.206772985057512</v>
       </c>
       <c r="C20">
-        <v>40.307357241773623</v>
+        <v>59.620960578142032</v>
       </c>
       <c r="D20">
-        <v>26.980353418601375</v>
+        <v>62.690425095588282</v>
       </c>
       <c r="E20">
-        <v>64.342944909960522</v>
+        <v>64.342944920068263</v>
       </c>
     </row>
   </sheetData>
